--- a/7Rmart/src/main/resources/TestData1.xlsx
+++ b/7Rmart/src/main/resources/TestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288" tabRatio="653" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="16512" windowHeight="4344" tabRatio="927" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="AddNewsData" sheetId="8" r:id="rId8"/>
     <sheet name="UpdateInManageCategoryData" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
